--- a/Arquivos/Resultados/Resultados gerais e cálculo do gap.xlsx
+++ b/Arquivos/Resultados/Resultados gerais e cálculo do gap.xlsx
@@ -243,14 +243,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -285,13 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,46 +293,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,16 +315,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,35 +346,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,9 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,8 +398,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +487,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,31 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,19 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +583,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,73 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,15 +800,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,17 +815,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,27 +828,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +862,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,146 +908,146 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,7 +1075,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1084,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,13 +1111,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1136,29 +1129,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1174,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,7 +1183,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1192,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,9 +1202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,8 +1639,8 @@
       <c r="AA3" s="50"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="3"/>
     </row>
@@ -11762,7 +11754,7 @@
         <v>10.5971020428835</v>
       </c>
       <c r="E99" s="30">
-        <f t="shared" ref="E99:AD99" si="30">AVERAGE(E55:E98)</f>
+        <f t="shared" ref="E99:AF99" si="30">AVERAGE(E55:E98)</f>
         <v>32.5416085270716</v>
       </c>
       <c r="F99" s="30">
@@ -11866,11 +11858,11 @@
         <v>10.8562626916055</v>
       </c>
       <c r="AE99" s="30">
-        <f>AVERAGE(AE55:AE98)</f>
+        <f t="shared" si="30"/>
         <v>10.9927884047191</v>
       </c>
       <c r="AF99" s="30">
-        <f>AVERAGE(AF55:AF98)</f>
+        <f t="shared" si="30"/>
         <v>11.5826630741741</v>
       </c>
     </row>
@@ -12462,8 +12454,8 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
       <c r="AC3" s="25"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="26"/>
       <c r="AG3" s="3"/>
     </row>
@@ -22573,7 +22565,7 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="30">
-        <f t="shared" ref="D99:AD99" si="30">AVERAGE(D55:D98)</f>
+        <f t="shared" ref="D99:AF99" si="30">AVERAGE(D55:D98)</f>
         <v>5.49633956687635</v>
       </c>
       <c r="E99" s="30">
@@ -22681,11 +22673,11 @@
         <v>7.19739567153909</v>
       </c>
       <c r="AE99" s="30">
-        <f>AVERAGE(AE55:AE98)</f>
+        <f t="shared" si="30"/>
         <v>7.00544670597762</v>
       </c>
       <c r="AF99" s="30">
-        <f>AVERAGE(AF55:AF98)</f>
+        <f t="shared" si="30"/>
         <v>6.94508653837023</v>
       </c>
     </row>
@@ -23169,8 +23161,8 @@
   <sheetPr/>
   <dimension ref="B2:AG99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="Q25" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13:AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -23272,8 +23264,8 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
       <c r="AC3" s="25"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="26"/>
       <c r="AG3" s="3"/>
     </row>
@@ -23355,7 +23347,7 @@
         <v>22</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG4" s="3"/>
     </row>
@@ -23447,11 +23439,11 @@
       <c r="AD5" s="27">
         <v>1891.27</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="28">
         <v>1879.12</v>
       </c>
-      <c r="AF5" s="27">
-        <v>1891.27</v>
+      <c r="AF5" s="29">
+        <v>1906.4</v>
       </c>
       <c r="AG5" s="2">
         <f>SMALL(D5:AF5,1)</f>
@@ -23546,10 +23538,10 @@
       <c r="AD6" s="27">
         <v>918</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="28">
         <v>918</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="AF6" s="29">
         <v>918</v>
       </c>
       <c r="AG6" s="2">
@@ -23645,10 +23637,10 @@
       <c r="AD7" s="27">
         <v>1086</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE7" s="28">
         <v>1086</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AF7" s="29">
         <v>1086</v>
       </c>
       <c r="AG7" s="2">
@@ -23744,10 +23736,10 @@
       <c r="AD8" s="27">
         <v>3853.08</v>
       </c>
-      <c r="AE8" s="29">
+      <c r="AE8" s="28">
         <v>3855.72</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="29">
         <v>3853.08</v>
       </c>
       <c r="AG8" s="2">
@@ -23843,11 +23835,11 @@
       <c r="AD9" s="27">
         <v>48426.06</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="28">
         <v>48890.09</v>
       </c>
-      <c r="AF9" s="27">
-        <v>48426.06</v>
+      <c r="AF9" s="29">
+        <v>49025.77</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="0"/>
@@ -23942,10 +23934,10 @@
       <c r="AD10" s="27">
         <v>1528.5</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="28">
         <v>1528.5</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AF10" s="29">
         <v>1528.5</v>
       </c>
       <c r="AG10" s="2">
@@ -24041,11 +24033,11 @@
       <c r="AD11" s="27">
         <v>3758.52</v>
       </c>
-      <c r="AE11" s="29">
+      <c r="AE11" s="28">
         <v>3806.81</v>
       </c>
-      <c r="AF11" s="27">
-        <v>3758.52</v>
+      <c r="AF11" s="29">
+        <v>3857.35</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="0"/>
@@ -24140,11 +24132,11 @@
       <c r="AD12" s="27">
         <v>4333.63</v>
       </c>
-      <c r="AE12" s="29">
+      <c r="AE12" s="28">
         <v>4311.13</v>
       </c>
-      <c r="AF12" s="27">
-        <v>4333.63</v>
+      <c r="AF12" s="29">
+        <v>4337.37</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="0"/>
@@ -24239,10 +24231,10 @@
       <c r="AD13" s="27">
         <v>388</v>
       </c>
-      <c r="AE13" s="29">
+      <c r="AE13" s="28">
         <v>388</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AF13" s="29">
         <v>388</v>
       </c>
       <c r="AG13" s="2">
@@ -24338,10 +24330,10 @@
       <c r="AD14" s="27">
         <v>272.79</v>
       </c>
-      <c r="AE14" s="29">
+      <c r="AE14" s="28">
         <v>272.79</v>
       </c>
-      <c r="AF14" s="27">
+      <c r="AF14" s="29">
         <v>272.79</v>
       </c>
       <c r="AG14" s="2">
@@ -24437,11 +24429,11 @@
       <c r="AD15" s="27">
         <v>337.73</v>
       </c>
-      <c r="AE15" s="29">
+      <c r="AE15" s="28">
         <v>338.57</v>
       </c>
-      <c r="AF15" s="27">
-        <v>337.73</v>
+      <c r="AF15" s="29">
+        <v>335.71</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="0"/>
@@ -24536,11 +24528,11 @@
       <c r="AD16" s="27">
         <v>387.72</v>
       </c>
-      <c r="AE16" s="29">
+      <c r="AE16" s="28">
         <v>390.85</v>
       </c>
-      <c r="AF16" s="27">
-        <v>387.72</v>
+      <c r="AF16" s="29">
+        <v>387.64</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="0"/>
@@ -24635,10 +24627,10 @@
       <c r="AD17" s="27">
         <v>492</v>
       </c>
-      <c r="AE17" s="29">
+      <c r="AE17" s="28">
         <v>492</v>
       </c>
-      <c r="AF17" s="27">
+      <c r="AF17" s="29">
         <v>492</v>
       </c>
       <c r="AG17" s="2">
@@ -24734,11 +24726,11 @@
       <c r="AD18" s="27">
         <v>1585.89</v>
       </c>
-      <c r="AE18" s="29">
+      <c r="AE18" s="28">
         <v>1572.01</v>
       </c>
-      <c r="AF18" s="27">
-        <v>1585.89</v>
+      <c r="AF18" s="29">
+        <v>1579.95</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="0"/>
@@ -24833,10 +24825,10 @@
       <c r="AD19" s="27">
         <v>640</v>
       </c>
-      <c r="AE19" s="29">
+      <c r="AE19" s="28">
         <v>640</v>
       </c>
-      <c r="AF19" s="27">
+      <c r="AF19" s="29">
         <v>640</v>
       </c>
       <c r="AG19" s="2">
@@ -24932,10 +24924,10 @@
       <c r="AD20" s="27">
         <v>1276</v>
       </c>
-      <c r="AE20" s="29">
+      <c r="AE20" s="28">
         <v>1276</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AF20" s="29">
         <v>1276</v>
       </c>
       <c r="AG20" s="2">
@@ -25031,10 +25023,10 @@
       <c r="AD21" s="27">
         <v>748</v>
       </c>
-      <c r="AE21" s="29">
+      <c r="AE21" s="28">
         <v>748</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AF21" s="29">
         <v>748</v>
       </c>
       <c r="AG21" s="2">
@@ -25130,11 +25122,11 @@
       <c r="AD22" s="27">
         <v>2909</v>
       </c>
-      <c r="AE22" s="29">
+      <c r="AE22" s="28">
         <v>2916</v>
       </c>
-      <c r="AF22" s="27">
-        <v>2909</v>
+      <c r="AF22" s="29">
+        <v>2916</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="0"/>
@@ -25229,10 +25221,10 @@
       <c r="AD23" s="27">
         <v>32129.09</v>
       </c>
-      <c r="AE23" s="29">
+      <c r="AE23" s="28">
         <v>32101</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AF23" s="29">
         <v>32129.09</v>
       </c>
       <c r="AG23" s="2">
@@ -25328,11 +25320,11 @@
       <c r="AD24" s="27">
         <v>6838</v>
       </c>
-      <c r="AE24" s="29">
+      <c r="AE24" s="28">
         <v>6854</v>
       </c>
-      <c r="AF24" s="27">
-        <v>6838</v>
+      <c r="AF24" s="29">
+        <v>6917</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="0"/>
@@ -25427,15 +25419,15 @@
       <c r="AD25" s="27">
         <v>13912.79</v>
       </c>
-      <c r="AE25" s="29">
+      <c r="AE25" s="28">
         <v>13790.08</v>
       </c>
-      <c r="AF25" s="27">
-        <v>13912.79</v>
+      <c r="AF25" s="29">
+        <v>13697.6</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="0"/>
-        <v>13790.08</v>
+        <v>13697.6</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="2:33">
@@ -25526,15 +25518,15 @@
       <c r="AD26" s="27">
         <v>17320.64</v>
       </c>
-      <c r="AE26" s="29">
+      <c r="AE26" s="28">
         <v>17116.99</v>
       </c>
-      <c r="AF26" s="27">
-        <v>17320.64</v>
+      <c r="AF26" s="29">
+        <v>17116.48</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="0"/>
-        <v>17116.99</v>
+        <v>17116.48</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="2:33">
@@ -25625,11 +25617,11 @@
       <c r="AD27" s="27">
         <v>19530.07</v>
       </c>
-      <c r="AE27" s="29">
+      <c r="AE27" s="28">
         <v>19562.27</v>
       </c>
-      <c r="AF27" s="27">
-        <v>19530.07</v>
+      <c r="AF27" s="29">
+        <v>19344.5</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="0"/>
@@ -25724,11 +25716,11 @@
       <c r="AD28" s="27">
         <v>14317.85</v>
       </c>
-      <c r="AE28" s="29">
+      <c r="AE28" s="28">
         <v>14221.75</v>
       </c>
-      <c r="AF28" s="27">
-        <v>14317.85</v>
+      <c r="AF28" s="29">
+        <v>14154.29</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="0"/>
@@ -25823,11 +25815,11 @@
       <c r="AD29" s="27">
         <v>16573.44</v>
       </c>
-      <c r="AE29" s="29">
+      <c r="AE29" s="28">
         <v>16640.43</v>
       </c>
-      <c r="AF29" s="27">
-        <v>16573.44</v>
+      <c r="AF29" s="29">
+        <v>16546.25</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="0"/>
@@ -25922,11 +25914,11 @@
       <c r="AD30" s="27">
         <v>19043.1</v>
       </c>
-      <c r="AE30" s="29">
+      <c r="AE30" s="28">
         <v>19219.6</v>
       </c>
-      <c r="AF30" s="27">
-        <v>19043.1</v>
+      <c r="AF30" s="29">
+        <v>19212.8</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="0"/>
@@ -26021,11 +26013,11 @@
       <c r="AD31" s="27">
         <v>13096.01</v>
       </c>
-      <c r="AE31" s="29">
+      <c r="AE31" s="28">
         <v>13185.26</v>
       </c>
-      <c r="AF31" s="27">
-        <v>13096.01</v>
+      <c r="AF31" s="29">
+        <v>13185.26</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="0"/>
@@ -26120,15 +26112,15 @@
       <c r="AD32" s="27">
         <v>14185.67</v>
       </c>
-      <c r="AE32" s="29">
+      <c r="AE32" s="28">
         <v>13916.14</v>
       </c>
-      <c r="AF32" s="27">
-        <v>14185.67</v>
+      <c r="AF32" s="29">
+        <v>13764.92</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="0"/>
-        <v>13770.88</v>
+        <v>13764.92</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="2:33">
@@ -26219,11 +26211,11 @@
       <c r="AD33" s="27">
         <v>14311.01</v>
       </c>
-      <c r="AE33" s="29">
+      <c r="AE33" s="28">
         <v>14565.82</v>
       </c>
-      <c r="AF33" s="27">
-        <v>14311.01</v>
+      <c r="AF33" s="29">
+        <v>14402.47</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="0"/>
@@ -26318,11 +26310,11 @@
       <c r="AD34" s="27">
         <v>7754.43</v>
       </c>
-      <c r="AE34" s="29">
+      <c r="AE34" s="28">
         <v>7987.81</v>
       </c>
-      <c r="AF34" s="27">
-        <v>7754.43</v>
+      <c r="AF34" s="29">
+        <v>7996.87</v>
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="0"/>
@@ -26417,11 +26409,11 @@
       <c r="AD35" s="27">
         <v>25789.05</v>
       </c>
-      <c r="AE35" s="29">
+      <c r="AE35" s="28">
         <v>26338.49</v>
       </c>
-      <c r="AF35" s="27">
-        <v>25789.05</v>
+      <c r="AF35" s="29">
+        <v>25929.59</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="0"/>
@@ -26516,11 +26508,11 @@
       <c r="AD36" s="27">
         <v>59489.66</v>
       </c>
-      <c r="AE36" s="29">
+      <c r="AE36" s="28">
         <v>59538.72</v>
       </c>
-      <c r="AF36" s="27">
-        <v>59489.66</v>
+      <c r="AF36" s="29">
+        <v>59654.6</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="0"/>
@@ -26615,11 +26607,11 @@
       <c r="AD37" s="27">
         <v>29121.19</v>
       </c>
-      <c r="AE37" s="29">
+      <c r="AE37" s="28">
         <v>29417.51</v>
       </c>
-      <c r="AF37" s="27">
-        <v>29121.19</v>
+      <c r="AF37" s="29">
+        <v>29165.09</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="0"/>
@@ -26714,11 +26706,11 @@
       <c r="AD38" s="27">
         <v>35432.5</v>
       </c>
-      <c r="AE38" s="29">
+      <c r="AE38" s="28">
         <v>36464.11</v>
       </c>
-      <c r="AF38" s="27">
-        <v>35432.5</v>
+      <c r="AF38" s="29">
+        <v>35356.08</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="0"/>
@@ -26813,11 +26805,11 @@
       <c r="AD39" s="27">
         <v>65725.56</v>
       </c>
-      <c r="AE39" s="29">
+      <c r="AE39" s="28">
         <v>65893.9</v>
       </c>
-      <c r="AF39" s="27">
-        <v>65725.56</v>
+      <c r="AF39" s="29">
+        <v>65711.29</v>
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="0"/>
@@ -26912,10 +26904,10 @@
       <c r="AD40" s="27">
         <v>38220.88</v>
       </c>
-      <c r="AE40" s="29">
+      <c r="AE40" s="28">
         <v>39033.8</v>
       </c>
-      <c r="AF40" s="27">
+      <c r="AF40" s="29">
         <v>38220.88</v>
       </c>
       <c r="AG40" s="2">
@@ -27011,11 +27003,11 @@
       <c r="AD41" s="27">
         <v>45968.16</v>
       </c>
-      <c r="AE41" s="29">
+      <c r="AE41" s="28">
         <v>45889.61</v>
       </c>
-      <c r="AF41" s="27">
-        <v>45968.16</v>
+      <c r="AF41" s="29">
+        <v>45829.01</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="0"/>
@@ -27110,15 +27102,15 @@
       <c r="AD42" s="27">
         <v>45559.08</v>
       </c>
-      <c r="AE42" s="29">
+      <c r="AE42" s="28">
         <v>44331.12</v>
       </c>
-      <c r="AF42" s="27">
-        <v>45559.08</v>
+      <c r="AF42" s="29">
+        <v>43673.02</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="0"/>
-        <v>43895.58</v>
+        <v>43673.02</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="2:33">
@@ -27209,11 +27201,11 @@
       <c r="AD43" s="27">
         <v>840.03</v>
       </c>
-      <c r="AE43" s="29">
+      <c r="AE43" s="28">
         <v>834.74</v>
       </c>
-      <c r="AF43" s="27">
-        <v>840.03</v>
+      <c r="AF43" s="29">
+        <v>837.09</v>
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="0"/>
@@ -27308,11 +27300,11 @@
       <c r="AD44" s="27">
         <v>1678.64</v>
       </c>
-      <c r="AE44" s="29">
+      <c r="AE44" s="28">
         <v>1658.3</v>
       </c>
-      <c r="AF44" s="27">
-        <v>1678.64</v>
+      <c r="AF44" s="29">
+        <v>1662.71</v>
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="0"/>
@@ -27407,11 +27399,11 @@
       <c r="AD45" s="27">
         <v>415.54</v>
       </c>
-      <c r="AE45" s="29">
+      <c r="AE45" s="28">
         <v>418.84</v>
       </c>
-      <c r="AF45" s="27">
-        <v>415.54</v>
+      <c r="AF45" s="29">
+        <v>418.59</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="0"/>
@@ -27506,10 +27498,10 @@
       <c r="AD46" s="27">
         <v>698</v>
       </c>
-      <c r="AE46" s="29">
+      <c r="AE46" s="28">
         <v>698</v>
       </c>
-      <c r="AF46" s="27">
+      <c r="AF46" s="29">
         <v>698</v>
       </c>
       <c r="AG46" s="2">
@@ -27605,10 +27597,10 @@
       <c r="AD47" s="27">
         <v>2731</v>
       </c>
-      <c r="AE47" s="29">
+      <c r="AE47" s="28">
         <v>2731</v>
       </c>
-      <c r="AF47" s="27">
+      <c r="AF47" s="29">
         <v>2731</v>
       </c>
       <c r="AG47" s="2">
@@ -27704,10 +27696,10 @@
       <c r="AD48" s="27">
         <v>2540.07</v>
       </c>
-      <c r="AE48" s="29">
+      <c r="AE48" s="28">
         <v>2540.07</v>
       </c>
-      <c r="AF48" s="27">
+      <c r="AF48" s="29">
         <v>2540.07</v>
       </c>
       <c r="AG48" s="2">
@@ -28042,7 +28034,7 @@
       </c>
       <c r="AF55" s="17">
         <f t="shared" ref="AF55:AF98" si="27">100*(AF5-AG5)/AG5</f>
-        <v>1.38574690954315</v>
+        <v>2.19682430766262</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="2:32">
@@ -28538,7 +28530,7 @@
       </c>
       <c r="AF59" s="17">
         <f t="shared" si="27"/>
-        <v>0.274010725615923</v>
+        <v>1.51580753857694</v>
       </c>
     </row>
     <row r="60" ht="15.75" spans="2:32">
@@ -28786,7 +28778,7 @@
       </c>
       <c r="AF61" s="17">
         <f t="shared" si="27"/>
-        <v>0.362890628129235</v>
+        <v>3.00192526963121</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="2:32">
@@ -28910,7 +28902,7 @@
       </c>
       <c r="AF62" s="17">
         <f t="shared" si="27"/>
-        <v>2.22055011333911</v>
+        <v>2.30876827165532</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="2:32">
@@ -29282,7 +29274,7 @@
       </c>
       <c r="AF65" s="17">
         <f t="shared" si="27"/>
-        <v>1.49661908339595</v>
+        <v>0.889556724267462</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="2:32">
@@ -29406,7 +29398,7 @@
       </c>
       <c r="AF66" s="17">
         <f t="shared" si="27"/>
-        <v>0.268956242888182</v>
+        <v>0.248267301127542</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="2:32">
@@ -29654,7 +29646,7 @@
       </c>
       <c r="AF68" s="17">
         <f t="shared" si="27"/>
-        <v>0.882946037238956</v>
+        <v>0.505085845509892</v>
       </c>
     </row>
     <row r="69" ht="15.75" spans="2:32">
@@ -30150,7 +30142,7 @@
       </c>
       <c r="AF72" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.240632519766243</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="2:32">
@@ -30398,7 +30390,7 @@
       </c>
       <c r="AF74" s="17">
         <f t="shared" si="27"/>
-        <v>0.352216025829175</v>
+        <v>1.51159377751688</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="2:32">
@@ -30410,119 +30402,119 @@
       </c>
       <c r="D75" s="17">
         <f t="shared" si="1"/>
-        <v>1.3917250661345</v>
+        <v>2.07627613596542</v>
       </c>
       <c r="E75" s="17">
         <f t="shared" si="2"/>
-        <v>41.2358739035597</v>
+        <v>42.1894346454853</v>
       </c>
       <c r="F75" s="17">
         <f t="shared" si="3"/>
-        <v>27.0236285793846</v>
+        <v>27.8812346688471</v>
       </c>
       <c r="G75" s="17">
         <f t="shared" si="4"/>
-        <v>27.5252210284494</v>
+        <v>28.386213643266</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="5"/>
-        <v>15.7990381491623</v>
+        <v>16.5808608807382</v>
       </c>
       <c r="I75" s="17">
         <f t="shared" si="6"/>
-        <v>12.7250893395832</v>
+        <v>13.4861581590936</v>
       </c>
       <c r="J75" s="17">
         <f t="shared" si="7"/>
-        <v>26.9548835104655</v>
+        <v>27.8120254643149</v>
       </c>
       <c r="K75" s="17">
         <f t="shared" si="8"/>
-        <v>25.3944864714345</v>
+        <v>26.2410933302184</v>
       </c>
       <c r="L75" s="17">
         <f t="shared" si="9"/>
-        <v>19.0676196222212</v>
+        <v>19.8715103375774</v>
       </c>
       <c r="M75" s="17">
         <f t="shared" si="10"/>
-        <v>13.9439365108832</v>
+        <v>14.7132344352295</v>
       </c>
       <c r="N75" s="17">
         <f t="shared" si="11"/>
-        <v>23.739818768274</v>
+        <v>24.5752540591052</v>
       </c>
       <c r="O75" s="17">
         <f t="shared" si="12"/>
-        <v>5.46987399638</v>
+        <v>6.18195888330802</v>
       </c>
       <c r="P75" s="17">
         <f t="shared" si="13"/>
-        <v>8.02642189167866</v>
+        <v>8.75576743371101</v>
       </c>
       <c r="Q75" s="17">
         <f t="shared" si="14"/>
-        <v>0.197243235717275</v>
+        <v>0.873729704473779</v>
       </c>
       <c r="R75" s="17">
         <f t="shared" si="15"/>
-        <v>0.453006799090356</v>
+        <v>1.13122006774909</v>
       </c>
       <c r="S75" s="17">
         <f t="shared" si="16"/>
-        <v>1.74139671415974</v>
+        <v>2.42830860880737</v>
       </c>
       <c r="T75" s="17">
         <f t="shared" si="17"/>
-        <v>1.26823049612475</v>
+        <v>1.95194778647354</v>
       </c>
       <c r="U75" s="17">
         <f t="shared" si="18"/>
-        <v>0.530598807258552</v>
+        <v>1.20933594206284</v>
       </c>
       <c r="V75" s="17">
         <f t="shared" si="19"/>
-        <v>0.467219914605284</v>
+        <v>1.14552914379161</v>
       </c>
       <c r="W75" s="17">
         <f t="shared" si="20"/>
-        <v>1.02000858588202</v>
+        <v>1.70204999415956</v>
       </c>
       <c r="X75" s="17">
         <f t="shared" si="21"/>
-        <v>2.81376177658143</v>
+        <v>3.50791379511739</v>
       </c>
       <c r="Y75" s="17">
         <f t="shared" si="22"/>
-        <v>1.33392989743352</v>
+        <v>2.01809076042519</v>
       </c>
       <c r="Z75" s="17">
         <f t="shared" si="23"/>
-        <v>0.889842553487731</v>
+        <v>1.5710051395865</v>
       </c>
       <c r="AA75" s="17">
         <f t="shared" si="24"/>
-        <v>2.58511915811946</v>
+        <v>3.27772748510687</v>
       </c>
       <c r="AB75" s="17">
         <f t="shared" si="25"/>
-        <v>1.52334141643848</v>
+        <v>2.20878110033874</v>
       </c>
       <c r="AC75" s="17">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.675154771638824</v>
       </c>
       <c r="AD75" s="17">
         <f t="shared" si="28"/>
-        <v>0.889842553487731</v>
+        <v>1.5710051395865</v>
       </c>
       <c r="AE75" s="17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.675154771638824</v>
       </c>
       <c r="AF75" s="17">
         <f t="shared" si="27"/>
-        <v>0.889842553487731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="2:32">
@@ -30534,119 +30526,119 @@
       </c>
       <c r="D76" s="17">
         <f t="shared" si="1"/>
-        <v>3.91429801618157</v>
+        <v>3.91739423058947</v>
       </c>
       <c r="E76" s="17">
         <f t="shared" si="2"/>
-        <v>34.009308879657</v>
+        <v>34.0133018003702</v>
       </c>
       <c r="F76" s="17">
         <f t="shared" si="3"/>
-        <v>27.0876480035333</v>
+        <v>27.0914346875059</v>
       </c>
       <c r="G76" s="17">
         <f t="shared" si="4"/>
-        <v>32.5064161397535</v>
+        <v>32.5103642805063</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="5"/>
-        <v>23.9746006745345</v>
+        <v>23.9782946026286</v>
       </c>
       <c r="I76" s="17">
         <f t="shared" si="6"/>
-        <v>18.727358022643</v>
+        <v>18.7308956047038</v>
       </c>
       <c r="J76" s="17">
         <f t="shared" si="7"/>
-        <v>30.5966177464612</v>
+        <v>30.6005089831554</v>
       </c>
       <c r="K76" s="17">
         <f t="shared" si="8"/>
-        <v>26.8205449673102</v>
+        <v>26.8243236927219</v>
       </c>
       <c r="L76" s="17">
         <f t="shared" si="9"/>
-        <v>23.2024438876227</v>
+        <v>23.2061148086522</v>
       </c>
       <c r="M76" s="17">
         <f t="shared" si="10"/>
-        <v>20.7342529264783</v>
+        <v>20.7378503056703</v>
       </c>
       <c r="N76" s="17">
         <f t="shared" si="11"/>
-        <v>26.2137209871595</v>
+        <v>26.2174816317374</v>
       </c>
       <c r="O76" s="17">
         <f t="shared" si="12"/>
-        <v>16.5185584615052</v>
+        <v>16.5220302305147</v>
       </c>
       <c r="P76" s="17">
         <f t="shared" si="13"/>
-        <v>11.9008657480083</v>
+        <v>11.9041999289574</v>
       </c>
       <c r="Q76" s="17">
         <f t="shared" si="14"/>
-        <v>0.980429386241388</v>
+        <v>0.983438183551768</v>
       </c>
       <c r="R76" s="17">
         <f t="shared" si="15"/>
-        <v>1.04165510408079</v>
+        <v>1.04466572566323</v>
       </c>
       <c r="S76" s="17">
         <f t="shared" si="16"/>
-        <v>1.10264713597425</v>
+        <v>1.10565957486586</v>
       </c>
       <c r="T76" s="17">
         <f t="shared" si="17"/>
-        <v>2.42677012722447</v>
+        <v>2.42982201948065</v>
       </c>
       <c r="U76" s="17">
         <f t="shared" si="18"/>
-        <v>2.083719158567</v>
+        <v>2.0867608293294</v>
       </c>
       <c r="V76" s="17">
         <f t="shared" si="19"/>
-        <v>1.32143560287176</v>
+        <v>1.32445456075081</v>
       </c>
       <c r="W76" s="17">
         <f t="shared" si="20"/>
-        <v>1.02506340191821</v>
+        <v>1.02807352913684</v>
       </c>
       <c r="X76" s="17">
         <f t="shared" si="21"/>
-        <v>0.156043790409407</v>
+        <v>0.159028024453633</v>
       </c>
       <c r="Y76" s="17">
         <f t="shared" si="22"/>
-        <v>2.09733136491871</v>
+        <v>2.10037344126831</v>
       </c>
       <c r="Z76" s="17">
         <f t="shared" si="23"/>
-        <v>1.56920112706731</v>
+        <v>1.57222746732973</v>
       </c>
       <c r="AA76" s="17">
         <f t="shared" si="24"/>
-        <v>2.25033723803074</v>
+        <v>2.25338387331975</v>
       </c>
       <c r="AB76" s="17">
         <f t="shared" si="25"/>
-        <v>2.28825278276144</v>
+        <v>2.29130054777617</v>
       </c>
       <c r="AC76" s="17">
         <f t="shared" si="26"/>
-        <v>0.0598236021636863</v>
+        <v>0.0628049692460132</v>
       </c>
       <c r="AD76" s="17">
         <f t="shared" si="28"/>
-        <v>1.18975357232783</v>
+        <v>1.1927686066294</v>
       </c>
       <c r="AE76" s="17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.00297958458749718</v>
       </c>
       <c r="AF76" s="17">
         <f t="shared" si="27"/>
-        <v>1.18975357232783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="15.75" spans="2:32">
@@ -30770,7 +30762,7 @@
       </c>
       <c r="AF77" s="17">
         <f t="shared" si="27"/>
-        <v>1.41797714183044</v>
+        <v>0.454328060275202</v>
       </c>
     </row>
     <row r="78" ht="15.75" spans="2:32">
@@ -30894,7 +30886,7 @@
       </c>
       <c r="AF78" s="17">
         <f t="shared" si="27"/>
-        <v>2.6224989177148</v>
+        <v>1.4501905108673</v>
       </c>
     </row>
     <row r="79" ht="15.75" spans="2:32">
@@ -31018,7 +31010,7 @@
       </c>
       <c r="AF79" s="17">
         <f t="shared" si="27"/>
-        <v>0.51063602688782</v>
+        <v>0.345740616304926</v>
       </c>
     </row>
     <row r="80" ht="15.75" spans="2:32">
@@ -31142,7 +31134,7 @@
       </c>
       <c r="AF80" s="17">
         <f t="shared" si="27"/>
-        <v>1.67463540039883</v>
+        <v>2.58069510850558</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="2:32">
@@ -31266,7 +31258,7 @@
       </c>
       <c r="AF81" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.681505282906778</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="2:32">
@@ -31278,119 +31270,119 @@
       </c>
       <c r="D82" s="17">
         <f t="shared" si="1"/>
-        <v>0.821443509782968</v>
+        <v>0.865097654036492</v>
       </c>
       <c r="E82" s="17">
         <f t="shared" si="2"/>
-        <v>18.0215788678719</v>
+        <v>18.0726804078774</v>
       </c>
       <c r="F82" s="17">
         <f t="shared" si="3"/>
-        <v>24.0568503973602</v>
+        <v>24.110565117705</v>
       </c>
       <c r="G82" s="17">
         <f t="shared" si="4"/>
-        <v>17.1395727796626</v>
+        <v>17.190292424511</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="5"/>
-        <v>11.6478394990008</v>
+        <v>11.6961813072651</v>
       </c>
       <c r="I82" s="17">
         <f t="shared" si="6"/>
-        <v>11.8277118092671</v>
+        <v>11.8761314994929</v>
       </c>
       <c r="J82" s="17">
         <f t="shared" si="7"/>
-        <v>12.9794900543756</v>
+        <v>13.0284084469797</v>
       </c>
       <c r="K82" s="17">
         <f t="shared" si="8"/>
-        <v>23.2844233629223</v>
+        <v>23.3378036341657</v>
       </c>
       <c r="L82" s="17">
         <f t="shared" si="9"/>
-        <v>23.2844233629223</v>
+        <v>23.3378036341657</v>
       </c>
       <c r="M82" s="17">
         <f t="shared" si="10"/>
-        <v>22.806385648557</v>
+        <v>22.8595589367755</v>
       </c>
       <c r="N82" s="17">
         <f t="shared" si="11"/>
-        <v>23.3258876702143</v>
+        <v>23.379285894869</v>
       </c>
       <c r="O82" s="17">
         <f t="shared" si="12"/>
-        <v>7.32378758655947</v>
+        <v>7.3702571464273</v>
       </c>
       <c r="P82" s="17">
         <f t="shared" si="13"/>
-        <v>7.32378758655947</v>
+        <v>7.3702571464273</v>
       </c>
       <c r="Q82" s="17">
         <f t="shared" si="14"/>
-        <v>2.01287063717061</v>
+        <v>2.05704065116252</v>
       </c>
       <c r="R82" s="17">
         <f t="shared" si="15"/>
-        <v>0.750859785286063</v>
+        <v>0.794483367865564</v>
       </c>
       <c r="S82" s="17">
         <f t="shared" si="16"/>
-        <v>0.29540595807966</v>
+        <v>0.338832336112374</v>
       </c>
       <c r="T82" s="17">
         <f t="shared" si="17"/>
-        <v>1.10399625877214</v>
+        <v>1.14777274404791</v>
       </c>
       <c r="U82" s="17">
         <f t="shared" si="18"/>
-        <v>0.252416693777015</v>
+        <v>0.295824458115262</v>
       </c>
       <c r="V82" s="17">
         <f t="shared" si="19"/>
-        <v>1.42300274201795</v>
+        <v>1.4669173522258</v>
       </c>
       <c r="W82" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.0432984717673559</v>
       </c>
       <c r="X82" s="17">
         <f t="shared" si="21"/>
-        <v>2.36390121764187</v>
+        <v>2.40822322251055</v>
       </c>
       <c r="Y82" s="17">
         <f t="shared" si="22"/>
-        <v>2.37021889668635</v>
+        <v>2.41454363701351</v>
       </c>
       <c r="Z82" s="17">
         <f t="shared" si="23"/>
-        <v>2.19121799042617</v>
+        <v>2.23546522609648</v>
       </c>
       <c r="AA82" s="17">
         <f t="shared" si="24"/>
-        <v>1.22599281963099</v>
+        <v>1.26982212755322</v>
       </c>
       <c r="AB82" s="17">
         <f t="shared" si="25"/>
-        <v>0.935815285588146</v>
+        <v>0.979518951072726</v>
       </c>
       <c r="AC82" s="17">
         <f t="shared" si="26"/>
-        <v>1.22599281963099</v>
+        <v>1.26982212755322</v>
       </c>
       <c r="AD82" s="17">
         <f t="shared" si="28"/>
-        <v>3.01208056420505</v>
+        <v>3.05668322082511</v>
       </c>
       <c r="AE82" s="17">
         <f t="shared" si="29"/>
-        <v>1.05483454942604</v>
+        <v>1.09858974843297</v>
       </c>
       <c r="AF82" s="17">
         <f t="shared" si="27"/>
-        <v>3.01208056420505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="2:32">
@@ -31514,7 +31506,7 @@
       </c>
       <c r="AF83" s="17">
         <f t="shared" si="27"/>
-        <v>0.777005591989675</v>
+        <v>1.42105971056295</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="2:32">
@@ -31638,7 +31630,7 @@
       </c>
       <c r="AF84" s="17">
         <f t="shared" si="27"/>
-        <v>0.884413480865685</v>
+        <v>4.03853534466496</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="2:32">
@@ -31762,7 +31754,7 @@
       </c>
       <c r="AF85" s="17">
         <f t="shared" si="27"/>
-        <v>0.208039397703799</v>
+        <v>0.754133102472039</v>
       </c>
     </row>
     <row r="86" ht="15.75" spans="2:32">
@@ -31886,7 +31878,7 @@
       </c>
       <c r="AF86" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.277258266394521</v>
       </c>
     </row>
     <row r="87" ht="15.75" spans="2:32">
@@ -32010,7 +32002,7 @@
       </c>
       <c r="AF87" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.150749334075982</v>
       </c>
     </row>
     <row r="88" ht="15.75" spans="2:32">
@@ -32134,7 +32126,7 @@
       </c>
       <c r="AF88" s="17">
         <f t="shared" si="27"/>
-        <v>0.216143871153132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="15.75" spans="2:32">
@@ -32258,7 +32250,7 @@
       </c>
       <c r="AF89" s="17">
         <f t="shared" si="27"/>
-        <v>0.504621414664849</v>
+        <v>0.482800361370093</v>
       </c>
     </row>
     <row r="90" ht="15.75" spans="2:32">
@@ -32506,7 +32498,7 @@
       </c>
       <c r="AF91" s="17">
         <f t="shared" si="27"/>
-        <v>0.412390996206372</v>
+        <v>0.108433121731469</v>
       </c>
     </row>
     <row r="92" ht="15.75" spans="2:32">
@@ -32518,119 +32510,119 @@
       </c>
       <c r="D92" s="17">
         <f t="shared" si="1"/>
-        <v>11.6786701531225</v>
+        <v>12.2477905123117</v>
       </c>
       <c r="E92" s="17">
         <f t="shared" si="2"/>
-        <v>53.2551796786829</v>
+        <v>54.0361761105598</v>
       </c>
       <c r="F92" s="17">
         <f t="shared" si="3"/>
-        <v>61.8311684228799</v>
+        <v>62.6558685430959</v>
       </c>
       <c r="G92" s="17">
         <f t="shared" si="4"/>
-        <v>47.19536682281</v>
+        <v>47.9454821306152</v>
       </c>
       <c r="H92" s="17">
         <f t="shared" si="5"/>
-        <v>44.9348203167608</v>
+        <v>45.6734157610351</v>
       </c>
       <c r="I92" s="17">
         <f t="shared" si="6"/>
-        <v>42.2201962019866</v>
+        <v>42.9449577794254</v>
       </c>
       <c r="J92" s="17">
         <f t="shared" si="7"/>
-        <v>31.0903512380973</v>
+        <v>31.758394541985</v>
       </c>
       <c r="K92" s="17">
         <f t="shared" si="8"/>
-        <v>60.6299313051565</v>
+        <v>61.4485098580314</v>
       </c>
       <c r="L92" s="17">
         <f t="shared" si="9"/>
-        <v>53.7339750380334</v>
+        <v>54.5174114361681</v>
       </c>
       <c r="M92" s="17">
         <f t="shared" si="10"/>
-        <v>59.2630510862369</v>
+        <v>60.0746639458412</v>
       </c>
       <c r="N92" s="17">
         <f t="shared" si="11"/>
-        <v>30.3130975829457</v>
+        <v>30.9771799614499</v>
       </c>
       <c r="O92" s="17">
         <f t="shared" si="12"/>
-        <v>9.78030134241305</v>
+        <v>10.3397475145983</v>
       </c>
       <c r="P92" s="17">
         <f t="shared" si="13"/>
-        <v>10.1564667786597</v>
+        <v>10.717829909633</v>
       </c>
       <c r="Q92" s="17">
         <f t="shared" si="14"/>
-        <v>4.81834389703929</v>
+        <v>5.35250367389296</v>
       </c>
       <c r="R92" s="17">
         <f t="shared" si="15"/>
-        <v>3.81749141940942</v>
+        <v>4.34655079955543</v>
       </c>
       <c r="S92" s="17">
         <f t="shared" si="16"/>
-        <v>0.381291237067594</v>
+        <v>0.892839560900529</v>
       </c>
       <c r="T92" s="17">
         <f t="shared" si="17"/>
-        <v>1.51876339257847</v>
+        <v>2.03610833416146</v>
       </c>
       <c r="U92" s="17">
         <f t="shared" si="18"/>
-        <v>0.741509737426862</v>
+        <v>1.25489375362639</v>
       </c>
       <c r="V92" s="17">
         <f t="shared" si="19"/>
-        <v>0.166668261360247</v>
+        <v>0.677122855254803</v>
       </c>
       <c r="W92" s="17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.509605243695089</v>
       </c>
       <c r="X92" s="17">
         <f t="shared" si="21"/>
-        <v>4.79979988873595</v>
+        <v>5.33386516435091</v>
       </c>
       <c r="Y92" s="17">
         <f t="shared" si="22"/>
-        <v>4.79287436229343</v>
+        <v>5.32690434506248</v>
       </c>
       <c r="Z92" s="17">
         <f t="shared" si="23"/>
-        <v>4.71452934441236</v>
+        <v>5.24816007686211</v>
       </c>
       <c r="AA92" s="17">
         <f t="shared" si="24"/>
-        <v>4.87780318656229</v>
+        <v>5.41226597107323</v>
       </c>
       <c r="AB92" s="17">
         <f t="shared" si="25"/>
-        <v>4.67978780551482</v>
+        <v>5.21324149326061</v>
       </c>
       <c r="AC92" s="17">
         <f t="shared" si="26"/>
-        <v>4.50726474055018</v>
+        <v>5.03983924171034</v>
       </c>
       <c r="AD92" s="17">
         <f t="shared" si="28"/>
-        <v>3.78967540695441</v>
+        <v>4.31859303524237</v>
       </c>
       <c r="AE92" s="17">
         <f t="shared" si="29"/>
-        <v>0.992218350913693</v>
+        <v>1.50687999135394</v>
       </c>
       <c r="AF92" s="17">
         <f t="shared" si="27"/>
-        <v>3.78967540695441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" ht="15.75" spans="2:32">
@@ -32754,7 +32746,7 @@
       </c>
       <c r="AF93" s="17">
         <f t="shared" si="27"/>
-        <v>0.633730263315519</v>
+        <v>0.281524786160963</v>
       </c>
     </row>
     <row r="94" ht="15.75" spans="2:32">
@@ -32878,7 +32870,7 @@
       </c>
       <c r="AF94" s="17">
         <f t="shared" si="27"/>
-        <v>1.41553035566484</v>
+        <v>0.453114710520115</v>
       </c>
     </row>
     <row r="95" ht="15.75" spans="2:32">
@@ -33002,7 +32994,7 @@
       </c>
       <c r="AF95" s="17">
         <f t="shared" si="27"/>
-        <v>0.396230973665147</v>
+        <v>1.1331239429814</v>
       </c>
     </row>
     <row r="96" ht="15.75" spans="2:32">
@@ -33383,120 +33375,120 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="30">
-        <f t="shared" ref="D99:AD99" si="30">AVERAGE(D55:D98)</f>
-        <v>3.8435338955329</v>
+        <f t="shared" ref="D99:AF99" si="30">AVERAGE(D55:D98)</f>
+        <v>3.87308893616203</v>
       </c>
       <c r="E99" s="30">
         <f t="shared" si="30"/>
-        <v>31.7537853358626</v>
+        <v>31.7944592366471</v>
       </c>
       <c r="F99" s="30">
         <f t="shared" si="30"/>
-        <v>26.025479465095</v>
+        <v>26.0650205472313</v>
       </c>
       <c r="G99" s="30">
         <f t="shared" si="30"/>
-        <v>20.7182834045475</v>
+        <v>20.7561419433707</v>
       </c>
       <c r="H99" s="30">
         <f t="shared" si="30"/>
-        <v>18.5311133242454</v>
+        <v>18.5668509131592</v>
       </c>
       <c r="I99" s="30">
         <f t="shared" si="30"/>
-        <v>16.759149226836</v>
+        <v>16.7940989465914</v>
       </c>
       <c r="J99" s="30">
         <f t="shared" si="30"/>
-        <v>19.2947606735327</v>
+        <v>19.3306241936926</v>
       </c>
       <c r="K99" s="30">
         <f t="shared" si="30"/>
-        <v>23.1114932273658</v>
+        <v>23.1506374184638</v>
       </c>
       <c r="L99" s="30">
         <f t="shared" si="30"/>
-        <v>19.9957976868209</v>
+        <v>20.0331699210429</v>
       </c>
       <c r="M99" s="30">
         <f t="shared" si="30"/>
-        <v>20.4524508002121</v>
+        <v>20.4896708331976</v>
       </c>
       <c r="N99" s="30">
         <f t="shared" si="30"/>
-        <v>23.7739824114622</v>
+        <v>23.8093614237024</v>
       </c>
       <c r="O99" s="30">
         <f t="shared" si="30"/>
-        <v>10.1387775574441</v>
+        <v>10.1688110208075</v>
       </c>
       <c r="P99" s="30">
         <f t="shared" si="30"/>
-        <v>10.3127894992136</v>
+        <v>10.3432556904368</v>
       </c>
       <c r="Q99" s="30">
         <f t="shared" si="30"/>
-        <v>4.58457275986209</v>
+        <v>4.61315969297373</v>
       </c>
       <c r="R99" s="30">
         <f t="shared" si="30"/>
-        <v>4.92888181878672</v>
+        <v>4.95737970180869</v>
       </c>
       <c r="S99" s="30">
         <f t="shared" si="30"/>
-        <v>4.91932694545816</v>
+        <v>4.94762010535373</v>
       </c>
       <c r="T99" s="30">
         <f t="shared" si="30"/>
-        <v>5.13497609291266</v>
+        <v>5.16333724312774</v>
       </c>
       <c r="U99" s="30">
         <f t="shared" si="30"/>
-        <v>5.2448793630961</v>
+        <v>5.27302869459847</v>
       </c>
       <c r="V99" s="30">
         <f t="shared" si="30"/>
-        <v>5.31753991145701</v>
+        <v>5.34562394307446</v>
       </c>
       <c r="W99" s="30">
         <f t="shared" si="30"/>
-        <v>5.33126985241227</v>
+        <v>5.35940519902497</v>
       </c>
       <c r="X99" s="30">
         <f t="shared" si="30"/>
-        <v>4.79112379364889</v>
+        <v>4.82011296485489</v>
       </c>
       <c r="Y99" s="30">
         <f t="shared" si="30"/>
-        <v>4.76739885201981</v>
+        <v>4.79616152616611</v>
       </c>
       <c r="Z99" s="30">
         <f t="shared" si="30"/>
-        <v>4.77468511883529</v>
+        <v>4.80336845734622</v>
       </c>
       <c r="AA99" s="30">
         <f t="shared" si="30"/>
-        <v>4.80022037067531</v>
+        <v>4.8291737128278</v>
       </c>
       <c r="AB99" s="30">
         <f t="shared" si="30"/>
-        <v>4.83546527416929</v>
+        <v>4.86422992876351</v>
       </c>
       <c r="AC99" s="30">
         <f t="shared" si="30"/>
-        <v>4.6816945084607</v>
+        <v>4.71020678000169</v>
       </c>
       <c r="AD99" s="30">
         <f t="shared" si="30"/>
-        <v>4.56078662461292</v>
+        <v>4.58937066791538</v>
       </c>
       <c r="AE99" s="30">
-        <f>AVERAGE(AE55:AE98)</f>
-        <v>4.75414420011007</v>
+        <f t="shared" si="30"/>
+        <v>4.78224763637537</v>
       </c>
       <c r="AF99" s="30">
-        <f>AVERAGE(AF55:AF98)</f>
-        <v>4.56078662461292</v>
+        <f t="shared" si="30"/>
+        <v>4.54334371826048</v>
       </c>
     </row>
   </sheetData>
